--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3630.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3630.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.9564173335531</v>
+        <v>1.456061482429504</v>
       </c>
       <c r="B1">
-        <v>2.507432007750866</v>
+        <v>1.906810879707336</v>
       </c>
       <c r="C1">
-        <v>2.590945122897285</v>
+        <v>3.286095142364502</v>
       </c>
       <c r="D1">
-        <v>2.825485767997324</v>
+        <v>1.389496445655823</v>
       </c>
       <c r="E1">
-        <v>0.7444614565643454</v>
+        <v>0.811001718044281</v>
       </c>
     </row>
   </sheetData>
